--- a/lab1_planetry.xlsx
+++ b/lab1_planetry.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">wavelength </t>
+    <t>wavelength</t>
   </si>
   <si>
     <t>ref</t>
@@ -27,15 +32,18 @@
   <si>
     <t>sample3</t>
   </si>
+  <si>
+    <t>sample4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -50,37 +58,323 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="2">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -137,7 +431,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -163,7 +457,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -215,16 +509,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -240,7 +546,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -270,18 +576,22 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -299,269 +609,212 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="B2" s="1">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="C2" s="1">
-        <v>298.0</v>
+        <v>298</v>
       </c>
       <c r="D2" s="1">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="E2" s="1">
-        <v>197.0</v>
-      </c>
-      <c r="F2" s="2">
-        <f t="shared" ref="F2:F10" si="1">(C2-35)/B2</f>
-        <v>0.279787234</v>
-      </c>
-      <c r="G2" s="2">
-        <f t="shared" ref="G2:G10" si="2">A2</f>
-        <v>470</v>
-      </c>
-      <c r="H2" s="2">
-        <f t="shared" ref="H2:H10" si="3">F2</f>
-        <v>0.279787234</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="F2" s="1">
+        <v>122</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="B3" s="1">
-        <v>803.0</v>
+        <v>803</v>
       </c>
       <c r="C3" s="1">
-        <v>616.0</v>
+        <v>616</v>
       </c>
       <c r="D3" s="1">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="E3" s="1">
-        <v>217.0</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" si="1"/>
-        <v>0.7235367372</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" si="2"/>
-        <v>555</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" si="3"/>
-        <v>0.7235367372</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="F3" s="1">
+        <v>150</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>585.0</v>
+        <v>585</v>
       </c>
       <c r="B4" s="1">
-        <v>825.0</v>
+        <v>825</v>
       </c>
       <c r="C4" s="1">
-        <v>636.0</v>
+        <v>636</v>
       </c>
       <c r="D4" s="1">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="E4" s="1">
-        <v>202.0</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="1"/>
-        <v>0.7284848485</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="2"/>
-        <v>585</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.7284848485</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F4" s="1">
+        <v>205</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>605.0</v>
+        <v>605</v>
       </c>
       <c r="B5" s="1">
-        <v>860.0</v>
+        <v>860</v>
       </c>
       <c r="C5" s="1">
-        <v>652.0</v>
+        <v>652</v>
       </c>
       <c r="D5" s="1">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="E5" s="1">
-        <v>172.0</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.7174418605</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="2"/>
-        <v>605</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="3"/>
-        <v>0.7174418605</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F5" s="1">
+        <v>244</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>635.0</v>
+        <v>635</v>
       </c>
       <c r="B6" s="1">
-        <v>1021.0</v>
+        <v>1021</v>
       </c>
       <c r="C6" s="1">
-        <v>783.0</v>
+        <v>783</v>
       </c>
       <c r="D6" s="1">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="E6" s="1">
-        <v>172.0</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.7326150833</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="2"/>
-        <v>635</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="3"/>
-        <v>0.7326150833</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F6" s="1">
+        <v>187</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>660.0</v>
+        <v>660</v>
       </c>
       <c r="B7" s="1">
-        <v>1012.0</v>
+        <v>1012</v>
       </c>
       <c r="C7" s="1">
-        <v>746.0</v>
+        <v>746</v>
       </c>
       <c r="D7" s="1">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="E7" s="1">
-        <v>267.0</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.70256917</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="2"/>
-        <v>660</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="3"/>
-        <v>0.70256917</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="F7" s="1">
+        <v>248</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>695.0</v>
+        <v>695</v>
       </c>
       <c r="B8" s="1">
-        <v>1116.0</v>
+        <v>1116</v>
       </c>
       <c r="C8" s="1">
-        <v>1130.0</v>
+        <v>1130</v>
       </c>
       <c r="D8" s="1">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="E8" s="1">
-        <v>477.0</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.9811827957</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="2"/>
-        <v>695</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.9811827957</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="F8" s="1">
+        <v>526</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>880.0</v>
+        <v>880</v>
       </c>
       <c r="B9" s="1">
-        <v>1008.0</v>
+        <v>1008</v>
       </c>
       <c r="C9" s="1">
-        <v>666.0</v>
+        <v>666</v>
       </c>
       <c r="D9" s="1">
-        <v>912.0</v>
+        <v>912</v>
       </c>
       <c r="E9" s="1">
-        <v>847.0</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.6259920635</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="2"/>
-        <v>880</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="3"/>
-        <v>0.6259920635</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="F9" s="1">
+        <v>893</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="B10" s="1">
-        <v>922.0</v>
+        <v>922</v>
       </c>
       <c r="C10" s="1">
-        <v>475.0</v>
+        <v>475</v>
       </c>
       <c r="D10" s="1">
-        <v>805.0</v>
+        <v>805</v>
       </c>
       <c r="E10" s="1">
-        <v>739.0</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.4772234273</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="2"/>
-        <v>940</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="3"/>
-        <v>0.4772234273</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="F10" s="1">
+        <v>782</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/lab1_planetry.xlsx
+++ b/lab1_planetry.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>wavelength</t>
   </si>
@@ -35,12 +35,24 @@
   <si>
     <t>sample4</t>
   </si>
+  <si>
+    <t>u1</t>
+  </si>
+  <si>
+    <t>u2</t>
+  </si>
+  <si>
+    <t>u3</t>
+  </si>
+  <si>
+    <t>u3b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.000000"/>
       <color theme="1"/>
@@ -52,6 +64,11 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -61,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -69,13 +86,31 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,6 +647,18 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -632,8 +679,18 @@
       <c r="F2" s="1">
         <v>122</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="2">
+        <v>0.022549656120000001</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.01561009448</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.017927326569999999</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.014217383659999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -654,8 +711,18 @@
       <c r="F3" s="1">
         <v>150</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="2">
+        <v>0.043809985330000002</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.02063551575</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.02251941491</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.018620203250000002</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -676,8 +743,18 @@
       <c r="F4" s="1">
         <v>205</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="2">
+        <v>0.043287963290000002</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.019684795969999998</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.020968727869999999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.021155915510000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -698,8 +775,18 @@
       <c r="F5" s="1">
         <v>244</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="2">
+        <v>0.041778264519999997</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.019000568020000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.018443034890000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.02220380861</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
@@ -720,8 +807,18 @@
       <c r="F6" s="1">
         <v>187</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="2">
+        <v>0.038314166189999999</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.01550926649</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.01529949012</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.01592610685</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
@@ -742,8 +839,18 @@
       <c r="F7" s="1">
         <v>248</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="2">
+        <v>0.037418186050000003</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.019993043379999999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.019410511250000002</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.01867003666</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -764,8 +871,18 @@
       <c r="F8" s="1">
         <v>526</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="2">
+        <v>0.044808448180000002</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.02398735167</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.024559491650000001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.02612765404</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
@@ -786,8 +903,18 @@
       <c r="F9" s="1">
         <v>893</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="2">
+        <v>0.0347216963</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.043518868250000002</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.04124072736</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.04286807368</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
@@ -808,8 +935,18 @@
       <c r="F10" s="1">
         <v>782</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="2">
+        <v>0.030778647379999999</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.044540599850000001</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.041849601110000002</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.043593335699999999</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
